--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999983531986151</v>
+        <v>0.9999988332380492</v>
       </c>
       <c r="E2">
-        <v>0.9999983531986151</v>
+        <v>0.9999988332380492</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2892014896529571</v>
+        <v>0.9999999977660445</v>
       </c>
       <c r="E3">
-        <v>0.2892014896529571</v>
+        <v>0.9999999977660445</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9985339416943624</v>
+        <v>0.9804776950544825</v>
       </c>
       <c r="E4">
-        <v>0.9985339416943624</v>
+        <v>0.9804776950544825</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.009426957561623607</v>
+        <v>0.001058286236534054</v>
       </c>
       <c r="E5">
-        <v>0.009426957561623607</v>
+        <v>0.001058286236534054</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.041508496302353E-16</v>
+        <v>1.68652121484057E-12</v>
       </c>
       <c r="E6">
-        <v>1.041508496302353E-16</v>
+        <v>1.68652121484057E-12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.002624852212239E-09</v>
+        <v>9.699983565650095E-09</v>
       </c>
       <c r="E7">
-        <v>0.9999999989973751</v>
+        <v>0.9999999903000164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.220446049250313E-16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999289478106972</v>
+        <v>0.9930961941136397</v>
       </c>
       <c r="E9">
-        <v>7.105218930281154E-05</v>
+        <v>0.006903805886360304</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.00475086856466816</v>
+        <v>8.884696294575854E-06</v>
       </c>
       <c r="E10">
-        <v>0.9952491314353319</v>
+        <v>0.9999911153037054</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.511464945491768E-07</v>
+        <v>1.02410861889238E-09</v>
       </c>
       <c r="E11">
-        <v>0.9999995488535055</v>
+        <v>0.9999999989758914</v>
       </c>
       <c r="F11">
-        <v>6.087430953979492</v>
+        <v>8.830671310424805</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
